--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -91,12 +94,12 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
@@ -118,82 +121,91 @@
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -670,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -720,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9393939393939394</v>
@@ -770,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -820,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,16 +853,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.9166666666666666</v>
@@ -970,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5873015873015873</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1020,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4476744186046512</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C11">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.9069767441860465</v>
@@ -1070,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.392156862745098</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>248</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K12">
         <v>0.9014084507042254</v>
@@ -1120,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3559322033898305</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
         <v>0.8936170212765957</v>
@@ -1170,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.174496644295302</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1216,8 +1228,32 @@
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.2483221476510067</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>112</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
         <v>0.890625</v>
@@ -1243,16 +1279,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1264,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8658536585365854</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1290,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1316,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.8584905660377359</v>
+        <v>0.8625</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1342,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1368,12 +1404,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0.8214285714285714</v>
@@ -1399,7 +1435,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0.8148148148148148</v>
@@ -1425,16 +1461,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.8</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1446,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.7936507936507936</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1472,12 +1508,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.7916666666666666</v>
@@ -1503,16 +1539,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7714285714285715</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1524,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7617647058823529</v>
+        <v>0.775</v>
       </c>
       <c r="L27">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1550,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1576,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.7288135593220338</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L29">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="M29">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1602,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1628,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.725</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1654,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.7238493723849372</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1680,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1706,12 +1742,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>0.6808510638297872</v>
@@ -1737,16 +1773,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.676923076923077</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1758,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.6428571428571429</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1784,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.5955056179775281</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L37">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1810,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5238095238095238</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1836,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5111111111111111</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1862,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4931506849315068</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1888,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4743589743589743</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1914,7 +1950,85 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L43">
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
